--- a/public/reports/purchase_report.xlsx
+++ b/public/reports/purchase_report.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>SALES REPORT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Generated on</t>
   </si>
@@ -35,6 +32,12 @@
   </si>
   <si>
     <t>V.P.O#</t>
+  </si>
+  <si>
+    <t>PURCHASE STATUS REPORT</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,35 +395,38 @@
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
